--- a/JFAGY_20240119.xlsx
+++ b/JFAGY_20240119.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzoe/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB8F388-BDE0-404B-BCC2-4CD9A076A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8ACC7D-B111-154C-8DF0-D25E0FD923F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="500" windowWidth="33740" windowHeight="24900" xr2:uid="{F412202C-4FA8-A94B-A302-4EB7C26B13BE}"/>
   </bookViews>
@@ -30169,7 +30169,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
